--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value668.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value668.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.796514146268303</v>
+        <v>2.116667747497559</v>
       </c>
       <c r="B1">
-        <v>1.942287841823036</v>
+        <v>2.619241952896118</v>
       </c>
       <c r="C1">
-        <v>2.141745681680452</v>
+        <v>2.746314764022827</v>
       </c>
       <c r="D1">
-        <v>3.185868138634541</v>
+        <v>3.084755659103394</v>
       </c>
       <c r="E1">
-        <v>1.883215424562992</v>
+        <v>0.797762393951416</v>
       </c>
     </row>
   </sheetData>
